--- a/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25DCB60-3C7B-4C4C-B949-1D3FFBD6B5F8}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="221">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -64,9 +64,6 @@
     <t>metier6</t>
   </si>
   <si>
-    <t>fishDomain</t>
-  </si>
-  <si>
     <t>variableType</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>AgeGroupPlus</t>
   </si>
   <si>
     <t>LengthTotal</t>
@@ -742,9 +736,6 @@
     <t>the estimated variance</t>
   </si>
   <si>
-    <t>bvTypeUnit</t>
-  </si>
-  <si>
     <t>variableTypeUnit</t>
   </si>
   <si>
@@ -757,20 +748,169 @@
     <t>mm, wr / year</t>
   </si>
   <si>
+    <t>Henrik, are anyone using C in IC? And can you use Catch in CL (I guess you can)? Very few are using Catch, so we exclude Catch from this version and look at it later. RegDis is also deleted from the code list. If you have RegDis in the RDBES CL, then it should be declared as catchCategory = 'Dis' and variableType = OfficialWeigth</t>
+  </si>
+  <si>
+    <t>Rule: For landings is should always be ICESArea</t>
+  </si>
+  <si>
+    <t>ton, kg, pcs., 1000_psc.</t>
+  </si>
+  <si>
+    <t>Code list needed
+WeightLive
+Number</t>
+  </si>
+  <si>
+    <t>Code list needed WGWeight, OfficialWeight, Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Check if new code list is needed. </t>
+      <t xml:space="preserve">Rule: </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Only ICESArea allowed</t>
+    </r>
+  </si>
+  <si>
+    <t>Add code list</t>
+  </si>
+  <si>
+    <t>Add code lists</t>
+  </si>
+  <si>
+    <t>Rule: Only ICESArea allowed</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>SeasonType</t>
+  </si>
+  <si>
+    <t>fleetValue</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rule:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> For length and width it can only be mm.</t>
+    </r>
+  </si>
+  <si>
+    <t>The value of the bvType given above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age group plus, e.g., 9 if that is the plus group. </t>
+  </si>
+  <si>
+    <t>attributeType</t>
+  </si>
+  <si>
+    <t>attibuteValue</t>
+  </si>
+  <si>
+    <t>attType</t>
+  </si>
+  <si>
+    <t>varUnit</t>
+  </si>
+  <si>
+    <t>PSUPSUtype</t>
+  </si>
+  <si>
+    <t>bvUnit</t>
+  </si>
+  <si>
+    <t>variableUnit</t>
+  </si>
+  <si>
+    <t>bvVal</t>
+  </si>
+  <si>
+    <t>attVal</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>valType</t>
+  </si>
+  <si>
+    <t>E.g. sex</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rule: For landings is should always be ICESArea</t>
+      <t xml:space="preserve">Code list needed </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ton, kg, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pcs., 1000_psc.</t>
+    </r>
+  </si>
+  <si>
+    <t>MUNIT</t>
+  </si>
+  <si>
+    <t>fleetVal</t>
   </si>
   <si>
     <r>
@@ -812,85 +952,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">, DisBMS. </t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DisBMS</t>
+      <t xml:space="preserve">Check if new code list is needed. </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <t>Henrik, are anyone using C in IC? And can you use Catch in CL (I guess you can)? Very few are using Catch, so we exclude Catch from this version and look at it later. RegDis is also deleted from the code list. If you have RegDis in the RDBES CL, then it should be declared as catchCategory = 'Dis' and variableType = OfficialWeigth</t>
-  </si>
-  <si>
-    <t>Rule: For landings is should always be ICESArea</t>
-  </si>
-  <si>
-    <t>ton, kg, pcs., 1000_psc.</t>
-  </si>
-  <si>
-    <t>Code list needed
-WeightLive
-Number</t>
-  </si>
-  <si>
-    <t>Code list needed WGWeight, OfficialWeight, Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rule: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Only ICESArea allowed</t>
-    </r>
-  </si>
-  <si>
-    <t>Add code list</t>
-  </si>
-  <si>
-    <t>Add code lists</t>
-  </si>
-  <si>
-    <t>Rule: Only ICESArea allowed</t>
-  </si>
-  <si>
-    <t>Catch</t>
-  </si>
-  <si>
-    <t>SeasonType</t>
-  </si>
-  <si>
-    <t>fleetValue</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -899,108 +967,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rule:</t>
+      <t>Rule: For landings is should always be ICESArea</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> For length and width it can only be mm.</t>
-    </r>
-  </si>
-  <si>
-    <t>The value of the bvType given above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age group plus, e.g., 9 if that is the plus group. </t>
-  </si>
-  <si>
-    <t>attributeType</t>
-  </si>
-  <si>
-    <t>attibuteValue</t>
-  </si>
-  <si>
-    <t>attType</t>
-  </si>
-  <si>
-    <t>varUnit</t>
-  </si>
-  <si>
-    <t>PSUPSUtype</t>
-  </si>
-  <si>
-    <t>bvUnit</t>
-  </si>
-  <si>
-    <t>variableUnit</t>
-  </si>
-  <si>
-    <t>bvVal</t>
-  </si>
-  <si>
-    <t>attVal</t>
-  </si>
-  <si>
-    <t>Fish Domain - deleted</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>valType</t>
-  </si>
-  <si>
-    <t>E.g. sex</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Code list needed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ton, kg, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pcs., 1000_psc.</t>
-    </r>
-  </si>
-  <si>
-    <t>MUNIT</t>
-  </si>
-  <si>
-    <t>fleetVal</t>
+  </si>
+  <si>
+    <t>Changes compared to version 16 are in read</t>
+  </si>
+  <si>
+    <t>OBS: The UK has not been checked, but needs to be updated</t>
   </si>
 </sst>
 </file>
@@ -1077,14 +1051,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1098,6 +1064,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1142,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1193,9 +1166,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1209,9 +1179,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1229,10 +1205,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1555,7 +1527,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,681 +1545,663 @@
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>16.100000000000001</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
+      <c r="E3" s="18" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="L5" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="H5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="H6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="H7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="H8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="H9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="H10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="H11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="H12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="H15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>176</v>
+      <c r="A26" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>159</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>126</v>
+      <c r="A27" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>9</v>
+      <c r="A28" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
-        <v>159</v>
+      <c r="A29" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
-        <v>56</v>
+      <c r="A30" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="23" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="23" t="s">
-        <v>167</v>
-      </c>
       <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
-        <v>168</v>
+      <c r="B44" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
-        <v>90</v>
+      <c r="B45" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>200</v>
+        <v>61</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="23" t="s">
-        <v>82</v>
+      <c r="B46" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>8</v>
-      </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="23" t="s">
-        <v>175</v>
+      <c r="B49" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="23" t="s">
-        <v>200</v>
+      <c r="B50" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="23" t="s">
-        <v>8</v>
-      </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.3">
@@ -2257,13 +2211,13 @@
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G80" s="21"/>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G81" s="21"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G82" s="21"/>
+      <c r="G82" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2296,74 +2250,74 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="H4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -2372,276 +2326,276 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>186</v>
+        <v>171</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -2650,243 +2604,243 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>200</v>
+        <v>82</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>171</v>
+      <c r="I17" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
-        <v>211</v>
+      <c r="B22" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2857,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,22 +2876,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2951,69 +2905,69 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="H6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -3022,195 +2976,195 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="I10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>195</v>
+        <v>162</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>196</v>
+        <v>168</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
@@ -3218,148 +3172,148 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="14" t="s">
-        <v>195</v>
+      <c r="H15" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -3368,100 +3322,100 @@
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>211</v>
+      <c r="B22" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -3475,7 +3429,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F5" sqref="F5:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3495,76 +3449,76 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="H3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -3573,197 +3527,196 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>195</v>
+        <v>162</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>196</v>
+        <v>168</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="14"/>
+        <v>171</v>
+      </c>
       <c r="I8" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>195</v>
+        <v>72</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -3772,31 +3725,31 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>175</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C12" s="12"/>
       <c r="I12" s="7"/>
@@ -3804,66 +3757,66 @@
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>200</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3879,7 +3832,7 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A10" sqref="A10:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3899,7 +3852,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3913,69 +3866,69 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="H4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -3984,285 +3937,297 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>193</v>
+      <c r="H11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="25" t="s">
-        <v>210</v>
+      <c r="B12" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>218</v>
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -4271,19 +4236,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="25" t="s">
-        <v>211</v>
+      <c r="B18" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
@@ -4292,34 +4257,34 @@
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -4332,42 +4297,42 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
@@ -4376,66 +4341,66 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J25" s="7"/>
     </row>
@@ -4464,378 +4429,378 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="str">
         <f>A2</f>
         <v>Age</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>Berried</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="str">
         <f>A5</f>
         <v>GeneticPopulation</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ref="B6:B15" si="0">A6</f>
         <v>HatchSeason</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>IlliciumCollected</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>InfoConversionFactor</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>InfoGenetic</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>InfoGonad</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>InfoLiver</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>InfoOtolithMorphometrics</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>InfoParasite</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>InfoStomach</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>InfoTagging</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.CONCAT(A16,"_mm")</f>
         <v>LengthCarapace_mm</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ref="B17:B26" si="1">_xlfn.CONCAT(A17,"_mm")</f>
         <v>LengthLowerJawFork_mm</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>LengthMantle_mm</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>LengthMaximumShell_mm</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>LengthPinchedTail_mm</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>LengthPreAnal_mm</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>LengthPreCaudal_mm</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>LengthStandard_mm</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
         <v>LengthTail_mm</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
         <v>LengthTotal_mm</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>LengthWingSpan_mm</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" t="str">
         <f>_xlfn.CONCAT(A27,"_SMSF")</f>
         <v>Maturity_SMSF</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ref="B28:B33" si="2">A28</f>
         <v>OtolithCollected</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
         <v>ScaleCollected</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="2"/>
         <v>Sex</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="2"/>
         <v>SpecimenState</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4847,84 +4812,84 @@
         <v>Stock</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="2"/>
         <v>VertebraCount</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" t="str">
         <f>_xlfn.CONCAT(A34,"_g")</f>
         <v>WeightGutted_g</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ref="B35:B36" si="3">_xlfn.CONCAT(A35,"_g")</f>
         <v>WeightLive_g</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="3"/>
         <v>WeightMeasured_g</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ref="B37:B38" si="4">_xlfn.CONCAT(A37,"_mm")</f>
         <v>WidthCarapace_mm</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="4"/>
         <v>WidthMaximumShell_mm</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4935,72 +4900,72 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5010,27 +4975,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5207,25 +5151,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E1917-8142-40B1-B65D-035A525D2E69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5242,4 +5189,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25DCB60-3C7B-4C4C-B949-1D3FFBD6B5F8}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558BD0F7-8C1A-4E28-9835-A1782570E99B}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="1" r:id="rId1"/>
     <sheet name="Catch" sheetId="6" r:id="rId2"/>
-    <sheet name="Spatial landings details" sheetId="8" r:id="rId3"/>
-    <sheet name="Effort" sheetId="9" r:id="rId4"/>
-    <sheet name="Age Length Width  Distribution" sheetId="10" r:id="rId5"/>
+    <sheet name="Age Length Width  Distribution" sheetId="10" r:id="rId3"/>
+    <sheet name="Spatial landings details" sheetId="8" r:id="rId4"/>
+    <sheet name="Effort" sheetId="9" r:id="rId5"/>
     <sheet name="BiologicalMeasurementType" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="228">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -73,9 +74,6 @@
     <t>numPSUs</t>
   </si>
   <si>
-    <t>CatchCategory</t>
-  </si>
-  <si>
     <t>fleet</t>
   </si>
   <si>
@@ -388,9 +386,6 @@
     <t>IC_FleetName</t>
   </si>
   <si>
-    <t>https://vocab.ices.dk/?codetypeguid=f3f1e839-ab30-4fe4-a0ea-9690ce72b18e</t>
-  </si>
-  <si>
     <t>Same as above</t>
   </si>
   <si>
@@ -434,9 +429,6 @@
   </si>
   <si>
     <t>Change to LengthFork and if accepted then LengthFork_mm</t>
-  </si>
-  <si>
-    <t>Code list needed Location, landing event, fishing trip, fishing operation, …</t>
   </si>
   <si>
     <t>Code list needed ScientificDaysAtSea, scientifickWDaysAtSea, scientificFishingDays, scientificVesselFishingHour, scientifickWFishingDays, numberOfUniqueVessels, numberOfDominantTrips, scientifickWFishingHours, ScientificNumberOfHaulsOrSets, scientificVesselKgPrHour</t>
@@ -471,9 +463,6 @@
   </si>
   <si>
     <t>decimal(3)</t>
-  </si>
-  <si>
-    <t>BMS, Dis, Lan</t>
   </si>
   <si>
     <t>For having two domainCatch: the estimation domain can differ for discards and BMS</t>
@@ -556,21 +545,6 @@
   </si>
   <si>
     <t>Why do we need to submit, when data is already submitted in the RDBES CL?: It is importaint that national estimators are responsible for the figures provided, so they need to check the numbers before submission. We can create a function for populating this table. Partially true, since we don't have fleet in the RDBES input data.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The fleet defined by the WG. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It would be good to build a map between WG and fleet as we had in the old data calls appendix and annex 1</t>
-    </r>
   </si>
   <si>
     <t>numTrips</t>
@@ -705,16 +679,7 @@
     <t>1-12</t>
   </si>
   <si>
-    <t>Check for code lists</t>
-  </si>
-  <si>
-    <t>Check if new code list is needed</t>
-  </si>
-  <si>
     <t>ICESArea, ICESAreaList, StockArea</t>
-  </si>
-  <si>
-    <t>, 'All'</t>
   </si>
   <si>
     <t>fleetType</t>
@@ -739,27 +704,10 @@
     <t>variableTypeUnit</t>
   </si>
   <si>
-    <t>g, kg, ton, pcs., 1000_psc.</t>
-  </si>
-  <si>
     <t>link to code list</t>
   </si>
   <si>
-    <t>mm, wr / year</t>
-  </si>
-  <si>
     <t>Henrik, are anyone using C in IC? And can you use Catch in CL (I guess you can)? Very few are using Catch, so we exclude Catch from this version and look at it later. RegDis is also deleted from the code list. If you have RegDis in the RDBES CL, then it should be declared as catchCategory = 'Dis' and variableType = OfficialWeigth</t>
-  </si>
-  <si>
-    <t>Rule: For landings is should always be ICESArea</t>
-  </si>
-  <si>
-    <t>ton, kg, pcs., 1000_psc.</t>
-  </si>
-  <si>
-    <t>Code list needed
-WeightLive
-Number</t>
   </si>
   <si>
     <t>Code list needed WGWeight, OfficialWeight, Number</t>
@@ -867,18 +815,80 @@
     <t>valType</t>
   </si>
   <si>
-    <t>E.g. sex</t>
-  </si>
-  <si>
+    <t>fleetVal</t>
+  </si>
+  <si>
+    <t>Changes compared to version 16 are in read</t>
+  </si>
+  <si>
+    <t>OBS: The UK has not been checked, but needs to be updated</t>
+  </si>
+  <si>
+    <t>Code list needed 
+WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
+  </si>
+  <si>
+    <t>Rule: For landings it should always be WGfleet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MUNIT (t, kg, </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Code list needed </t>
+      <t>pcs., 1000_psc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>IC_FleetName &amp; Metier6_FishingActivity</t>
+  </si>
+  <si>
+    <t>Rule: If fleetType = 'WGfleet' then code shoudl be in IC_FleetName. 
+If fleetType = 'WGFleetList' then codes should be in IC_FleetName.
+If fleetType = 'metier6' then code should be in Metier6_FishingActivity.
+If fleetType = 'metier6List' then codes should be in Metier6_FishingActivity.
+if fleetType = 'metier5' then code sould be in substr(Metier6_FishingActivity, 1, 7) - OBS gear with only 2 letters.
+if fleetType = 'metier5List' then codes sould be in substr(Metier6_FishingActivity, 1, 7) - OBS gear with only 2 letters.
+if fleetType = 'metier4' then code sould be in substr(Metier6_FishingActivity, 1, 3) - OBS gear with only 2 letters.
+if fleetType = 'metier4List' then codes sould be in substr(Metier6_FishingActivity, 1, 3) - OBS gear with only 2 letters.</t>
+  </si>
+  <si>
+    <t>Code list needed Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent</t>
+  </si>
+  <si>
+    <t>Code names are from the CS data model, where tables in the upper hierachy represent a PSU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TimeUnit (Quarter, Month, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quater &amp; Month &amp;</t>
     </r>
     <r>
       <rPr>
@@ -887,34 +897,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
+      <t xml:space="preserve"> Year</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ton, kg, </t>
+      <t xml:space="preserve">AreaType? (ICESArea, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pcs., 1000_psc.</t>
+      <t>ICESAreaList, StockArea)</t>
     </r>
   </si>
   <si>
-    <t>MUNIT</t>
-  </si>
-  <si>
-    <t>fleetVal</t>
+    <t>Rule: For landings it should always be ICESArea</t>
+  </si>
+  <si>
+    <t>Rule: If areaType = 'StockArea' then areaValue = 'All)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BMS, </t>
+      <t xml:space="preserve">ICESArea &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CatchCategory (BMS, </t>
     </r>
     <r>
       <rPr>
@@ -952,36 +976,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, DisBMS. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check if new code list is needed. </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DisBMS</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rule: For landings is should always be ICESArea</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t>Changes compared to version 16 are in read</t>
-  </si>
-  <si>
-    <t>OBS: The UK has not been checked, but needs to be updated</t>
+    <t>Vocabulary code type and codes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Codes in blue are missing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In general only included codes needed for the RCEF from a code list, but </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would be good to make none-valid for the RCEF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ValueUnitOrScale (Agewr, Ageyear, Lengthmm, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Widthmm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?ref=1625</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BiologicalMeasurementType (we would like to have some of the codes as invalid for the RCEF. We only need the ones with length and width) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WeightLive
+Number</t>
+    </r>
+  </si>
+  <si>
+    <t>BiologicalMeasurementType (we would like to have some of the codes as invalid for the RCEF. We only need the ones with length and width)</t>
+  </si>
+  <si>
+    <t>Rule: For now only 'Sex' allowed</t>
+  </si>
+  <si>
+    <t>We also need the length and width variable to declare mean length / width</t>
+  </si>
+  <si>
+    <t>This need a better explanations</t>
+  </si>
+  <si>
+    <t>Code names are from the RDBES CE data model</t>
+  </si>
+  <si>
+    <t>Rule: Only WGFleet allowed</t>
+  </si>
+  <si>
+    <t>Rule: If fleetType = 'WGfleet' then code shoudl be in IC_FleetName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,6 +1202,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1115,7 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1156,12 +1293,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1189,6 +1320,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1205,6 +1348,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1529,6 +1676,7 @@
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1545,663 +1693,663 @@
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>219</v>
+      <c r="E2" s="16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="E3" s="18" t="s">
-        <v>220</v>
+      <c r="E3" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="H5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="H6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="H7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="H8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="H9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="H10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="H11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="H12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="H13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="H14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="H15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="H5" s="20"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="H6" s="20"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="H7" s="20"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="H8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="H9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="H10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="H11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="H12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="H13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="H14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="H15" s="20"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>174</v>
+      <c r="A26" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>157</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>124</v>
+      <c r="A27" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>157</v>
+      <c r="A29" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>54</v>
+      <c r="A30" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="F42" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E45" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="22" t="s">
-        <v>7</v>
-      </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.3">
@@ -2211,13 +2359,13 @@
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G80" s="20"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G81" s="20"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G82" s="20"/>
+      <c r="G82" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2228,8 +2376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="1">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,7 +2391,7 @@
     <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="77.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="104.44140625" style="7" customWidth="1"/>
@@ -2248,76 +2399,79 @@
     <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -2326,276 +2480,267 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>170</v>
+        <v>71</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>218</v>
+        <v>71</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>169</v>
+        <v>71</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -2604,167 +2749,166 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>195</v>
+        <v>81</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>205</v>
+      </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="7" t="s">
-        <v>169</v>
+      <c r="I17" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>187</v>
+        <v>71</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
-        <v>206</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2772,40 +2916,41 @@
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>106</v>
+      </c>
       <c r="I23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>71</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2813,34 +2958,32 @@
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2853,12 +2996,620 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C12" zoomScale="109" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="1">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{8BABA8FC-650D-4A27-8910-3AA4C9BC4FDC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:I22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2876,22 +3627,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2903,534 +3654,577 @@
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="J6" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>168</v>
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="19" t="s">
-        <v>189</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>82</v>
-      </c>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3447,78 +4241,81 @@
     <col min="11" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -3527,196 +4324,196 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>190</v>
+        <v>157</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>191</v>
+      <c r="H7" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -3725,61 +4522,66 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="G12" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>156</v>
+      <c r="H13" s="5"/>
+      <c r="I13" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="J13" s="7"/>
     </row>
@@ -3788,21 +4590,23 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3810,13 +4614,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3824,592 +4628,6 @@
     <hyperlink ref="H5" r:id="rId1" xr:uid="{37BEC074-36E4-45F8-BBD8-903A5291017C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:J25"/>
-  <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" xr:uid="{8BABA8FC-650D-4A27-8910-3AA4C9BC4FDC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4420,6 +4638,9 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A38"/>
     </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="1">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4429,378 +4650,378 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="str">
         <f>A2</f>
         <v>Age</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="str">
         <f>A3</f>
         <v>Berried</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="str">
         <f>A5</f>
         <v>GeneticPopulation</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ref="B6:B15" si="0">A6</f>
         <v>HatchSeason</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>IlliciumCollected</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>InfoConversionFactor</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>InfoGenetic</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>InfoGonad</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>InfoLiver</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>InfoOtolithMorphometrics</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>InfoParasite</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>InfoStomach</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>InfoTagging</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.CONCAT(A16,"_mm")</f>
         <v>LengthCarapace_mm</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ref="B17:B26" si="1">_xlfn.CONCAT(A17,"_mm")</f>
         <v>LengthLowerJawFork_mm</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>LengthMantle_mm</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>LengthMaximumShell_mm</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>LengthPinchedTail_mm</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>LengthPreAnal_mm</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>LengthPreCaudal_mm</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>LengthStandard_mm</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
         <v>LengthTail_mm</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
         <v>LengthTotal_mm</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>LengthWingSpan_mm</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="str">
         <f>_xlfn.CONCAT(A27,"_SMSF")</f>
         <v>Maturity_SMSF</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ref="B28:B33" si="2">A28</f>
         <v>OtolithCollected</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
         <v>ScaleCollected</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="2"/>
         <v>Sex</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="2"/>
         <v>SpecimenState</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4812,84 +5033,84 @@
         <v>Stock</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="2"/>
         <v>VertebraCount</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="str">
         <f>_xlfn.CONCAT(A34,"_g")</f>
         <v>WeightGutted_g</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ref="B35:B36" si="3">_xlfn.CONCAT(A35,"_g")</f>
         <v>WeightLive_g</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="3"/>
         <v>WeightMeasured_g</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ref="B37:B38" si="4">_xlfn.CONCAT(A37,"_mm")</f>
         <v>WidthCarapace_mm</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="4"/>
         <v>WidthMaximumShell_mm</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,72 +5121,72 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4975,6 +5196,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5151,18 +5384,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5173,6 +5394,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E1917-8142-40B1-B65D-035A525D2E69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5191,16 +5422,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
   <ds:schemaRefs>

--- a/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558BD0F7-8C1A-4E28-9835-A1782570E99B}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE26256-A21A-4651-BE53-36D855E12112}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="224">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -658,9 +658,6 @@
     <t>seasonType</t>
   </si>
   <si>
-    <t>Quarter, Month, Year</t>
-  </si>
-  <si>
     <t>seasonValue</t>
   </si>
   <si>
@@ -674,12 +671,6 @@
   </si>
   <si>
     <t>areaVal</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t>ICESArea, ICESAreaList, StockArea</t>
   </si>
   <si>
     <t>fleetType</t>
@@ -729,15 +720,6 @@
       </rPr>
       <t>Only ICESArea allowed</t>
     </r>
-  </si>
-  <si>
-    <t>Add code list</t>
-  </si>
-  <si>
-    <t>Add code lists</t>
-  </si>
-  <si>
-    <t>Rule: Only ICESArea allowed</t>
   </si>
   <si>
     <t>Catch</t>
@@ -1105,6 +1087,24 @@
   </si>
   <si>
     <t>Rule: If fleetType = 'WGfleet' then code shoudl be in IC_FleetName</t>
+  </si>
+  <si>
+    <t>ICESArea</t>
+  </si>
+  <si>
+    <r>
+      <t>AreaType (ICESArea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,9 +1315,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1699,19 +1696,19 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="E3" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
@@ -1841,7 +1838,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -1858,13 +1855,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -1914,7 +1911,7 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
@@ -1923,13 +1920,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
@@ -1959,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -1974,7 +1971,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1989,7 +1986,7 @@
         <v>78</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
@@ -2005,7 +2002,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
@@ -2015,7 +2012,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -2046,7 +2043,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
@@ -2184,7 +2181,7 @@
         <v>59</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -2198,7 +2195,7 @@
         <v>59</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -2206,13 +2203,13 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>59</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -2248,13 +2245,13 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F44" t="s">
         <v>59</v>
@@ -2268,7 +2265,7 @@
         <v>60</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
@@ -2313,7 +2310,7 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
@@ -2321,7 +2318,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2379,7 +2376,7 @@
     <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="1">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2401,11 +2398,11 @@
   <sheetData>
     <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B2" s="14"/>
       <c r="G2" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2428,7 +2425,7 @@
         <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>73</v>
@@ -2602,13 +2599,13 @@
         <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2631,7 +2628,7 @@
         <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2639,10 +2636,10 @@
         <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>76</v>
@@ -2653,8 +2650,8 @@
       <c r="F11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>210</v>
+      <c r="G11" s="28" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2662,10 +2659,10 @@
         <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>93</v>
@@ -2676,11 +2673,11 @@
       <c r="F12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>211</v>
+      <c r="G12" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2688,10 +2685,10 @@
         <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>93</v>
@@ -2702,11 +2699,11 @@
       <c r="F13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>214</v>
+      <c r="G13" s="29" t="s">
+        <v>208</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2772,10 +2769,10 @@
         <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -2786,11 +2783,11 @@
       <c r="F16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>202</v>
+      <c r="G16" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -2798,10 +2795,10 @@
         <v>81</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>93</v>
@@ -2812,12 +2809,12 @@
       <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>205</v>
+      <c r="G17" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2896,8 +2893,8 @@
       <c r="F21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="27" t="s">
-        <v>174</v>
+      <c r="G21" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>155</v>
@@ -2905,10 +2902,10 @@
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2930,7 +2927,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>60</v>
@@ -2946,11 +2943,11 @@
       <c r="F25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>207</v>
+      <c r="G25" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3002,7 +2999,7 @@
     <sheetView topLeftCell="C12" zoomScale="109" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
-    <sheetView topLeftCell="A5" workbookViewId="1">
+    <sheetView topLeftCell="A6" workbookViewId="1">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3031,7 +3028,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3235,7 +3232,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>101</v>
@@ -3280,21 +3277,21 @@
       <c r="F11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>221</v>
+      <c r="G11" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3304,14 +3301,14 @@
       <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>218</v>
+      <c r="G12" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J12" s="7"/>
     </row>
@@ -3321,7 +3318,7 @@
         <v>124</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>76</v>
@@ -3333,7 +3330,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J13" s="7"/>
     </row>
@@ -3353,17 +3350,17 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -3371,21 +3368,21 @@
         <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -3410,22 +3407,22 @@
       <c r="F17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="H17" s="27"/>
+      <c r="G17" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="26"/>
       <c r="I17" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3433,7 +3430,7 @@
         <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
@@ -3442,10 +3439,10 @@
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>138</v>
@@ -3456,22 +3453,22 @@
       <c r="F19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>169</v>
+      <c r="G19" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3484,10 +3481,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>138</v>
@@ -3499,7 +3496,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -3509,7 +3506,7 @@
         <v>122</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
@@ -3518,8 +3515,8 @@
       <c r="F22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>207</v>
+      <c r="G22" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
@@ -3590,7 +3587,7 @@
         <v>142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3609,7 +3606,9 @@
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21:I22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A8" workbookViewId="1">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3662,7 +3661,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
@@ -3868,7 +3867,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>101</v>
@@ -3898,11 +3897,9 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
     </row>
@@ -3911,10 +3908,10 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>76</v>
@@ -3925,22 +3922,20 @@
       <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>178</v>
-      </c>
+      <c r="G14" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>93</v>
@@ -3951,12 +3946,12 @@
       <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>211</v>
+      <c r="G15" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -3965,10 +3960,10 @@
         <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -3979,12 +3974,10 @@
       <c r="F16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="G16" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
     </row>
@@ -4113,10 +4106,10 @@
         <v>81</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>93</v>
@@ -4127,12 +4120,12 @@
       <c r="F21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="27" t="s">
-        <v>202</v>
+      <c r="G21" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J21" s="6"/>
     </row>
@@ -4141,10 +4134,10 @@
         <v>81</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>93</v>
@@ -4155,12 +4148,12 @@
       <c r="F22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J22" s="6"/>
     </row>
@@ -4177,8 +4170,8 @@
       <c r="F23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>174</v>
+      <c r="G23" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
@@ -4188,14 +4181,14 @@
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4224,7 +4217,9 @@
     <sheetView zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4246,7 +4241,7 @@
         <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -4392,11 +4387,8 @@
       <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>177</v>
+      <c r="G6" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -4406,10 +4398,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>76</v>
@@ -4420,11 +4412,8 @@
       <c r="F7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>178</v>
+      <c r="G7" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -4434,10 +4423,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>93</v>
@@ -4448,11 +4437,11 @@
       <c r="F8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>179</v>
+      <c r="G8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -4461,10 +4450,10 @@
         <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>93</v>
@@ -4475,8 +4464,8 @@
       <c r="F9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>177</v>
+      <c r="G9" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -4546,14 +4535,14 @@
         <v>81</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="G12" s="27" t="s">
-        <v>202</v>
+      <c r="G12" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J12" s="7"/>
     </row>
@@ -4562,7 +4551,7 @@
         <v>81</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -4576,12 +4565,12 @@
       <c r="F13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J13" s="7"/>
     </row>
@@ -4601,11 +4590,11 @@
       <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>128</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J14" s="7"/>
     </row>
@@ -5208,6 +5197,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5384,15 +5382,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
@@ -5404,6 +5393,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E1917-8142-40B1-B65D-035A525D2E69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5420,12 +5417,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Rstudio\D1SCI\VISBIO\RDBESstockCoord\WGRDBESstockCoord\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{B1A0C331-821A-4352-89A9-FFB80AF22F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE26256-A21A-4651-BE53-36D855E12112}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{614ED536-2AF4-4098-823C-0B6A181B798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="1" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="227">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -447,10 +446,6 @@
   </si>
   <si>
     <t>Same defintion as in RDBES CL. ICES statistical rectangle (e.g. 41G9), mandatory for FAO area 27. (Use ‘-9’ if unknown or if not fishing in ICES area)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatRec
-</t>
   </si>
   <si>
     <t>//vocab.ices.dk/?ref=107</t>
@@ -692,9 +687,6 @@
     <t>the estimated variance</t>
   </si>
   <si>
-    <t>variableTypeUnit</t>
-  </si>
-  <si>
     <t>link to code list</t>
   </si>
   <si>
@@ -800,9 +792,6 @@
     <t>fleetVal</t>
   </si>
   <si>
-    <t>Changes compared to version 16 are in read</t>
-  </si>
-  <si>
     <t>OBS: The UK has not been checked, but needs to be updated</t>
   </si>
   <si>
@@ -831,7 +820,344 @@
     <t>IC_FleetName &amp; Metier6_FishingActivity</t>
   </si>
   <si>
-    <t>Rule: If fleetType = 'WGfleet' then code shoudl be in IC_FleetName. 
+    <t>Code list needed Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent</t>
+  </si>
+  <si>
+    <t>Code names are from the CS data model, where tables in the upper hierachy represent a PSU</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quater &amp; Month &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Year</t>
+    </r>
+  </si>
+  <si>
+    <t>Rule: For landings it should always be ICESArea</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ICESArea &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Vocabulary code type and codes</t>
+  </si>
+  <si>
+    <t>https://vocab.ices.dk/?ref=1625</t>
+  </si>
+  <si>
+    <t>Rule: For now only 'Sex' allowed</t>
+  </si>
+  <si>
+    <t>We also need the length and width variable to declare mean length / width</t>
+  </si>
+  <si>
+    <t>This need a better explanations</t>
+  </si>
+  <si>
+    <t>Code names are from the RDBES CE data model</t>
+  </si>
+  <si>
+    <t>Rule: Only WGFleet allowed</t>
+  </si>
+  <si>
+    <t>Rule: If fleetType = 'WGfleet' then code shoudl be in IC_FleetName</t>
+  </si>
+  <si>
+    <t>Changes compared to version 16 are in red</t>
+  </si>
+  <si>
+    <t>Rule: If areaType = 'StockArea' then areaValue = 'All); If areaType = 'ICESArea' then areaValue = ICES Area)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CatchCategory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(BMS, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Dis, Lan, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegDis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DisBMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TimeUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Quarter, Month, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AreaType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? (ICESArea, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ICESAreaList, StockArea)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Code list needed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Codes in blue are missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current ICES vocabulary list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only the codes needed for RCEF functionality have been included from each list. To avoid misuse, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>certain existing codes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should also be explicitly flagged as invalid for RCEF.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A completely new list is higlighted in purple</t>
+    </r>
+  </si>
+  <si>
+    <t>Rule: If fleetType = 'WGfleet' then code should be in IC_FleetName. 
 If fleetType = 'WGFleetList' then codes should be in IC_FleetName.
 If fleetType = 'metier6' then code should be in Metier6_FishingActivity.
 If fleetType = 'metier6List' then codes should be in Metier6_FishingActivity.
@@ -841,14 +1167,62 @@
 if fleetType = 'metier4List' then codes sould be in substr(Metier6_FishingActivity, 1, 3) - OBS gear with only 2 letters.</t>
   </si>
   <si>
-    <t>Code list needed Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent</t>
-  </si>
-  <si>
-    <t>Code names are from the CS data model, where tables in the upper hierachy represent a PSU</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TimeUnit (Quarter, Month, </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CatchCategory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (BMS, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Dis, Lan, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegDis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -858,6 +1232,187 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>DisBMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ValueUnitOrScale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Agewr, Ageyear, Lengthmm, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Widthmm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BiologicalMeasurementType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only need Sex and Maturity)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BiologicalMeasurementType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only need the ones with length, age and width)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AreaType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ICESArea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ICES Area</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StatRec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TimeUnit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Quarter, Month, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Year)</t>
     </r>
   </si>
@@ -865,245 +1420,41 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BiologicalMeasurementType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> need WeightLive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Quater &amp; Month &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AreaType? (ICESArea, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICESAreaList, StockArea)</t>
-    </r>
-  </si>
-  <si>
-    <t>Rule: For landings it should always be ICESArea</t>
-  </si>
-  <si>
-    <t>Rule: If areaType = 'StockArea' then areaValue = 'All)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ICESArea &amp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CatchCategory (BMS, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Dis, Lan, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RegDis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DisBMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Vocabulary code type and codes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Codes in blue are missing. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In general only included codes needed for the RCEF from a code list, but </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>codes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> would be good to make none-valid for the RCEF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ValueUnitOrScale (Agewr, Ageyear, Lengthmm, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Widthmm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>https://vocab.ices.dk/?ref=1625</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BiologicalMeasurementType (we would like to have some of the codes as invalid for the RCEF. We only need the ones with length and width) + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WeightLive
-Number</t>
-    </r>
-  </si>
-  <si>
-    <t>BiologicalMeasurementType (we would like to have some of the codes as invalid for the RCEF. We only need the ones with length and width)</t>
-  </si>
-  <si>
-    <t>Rule: For now only 'Sex' allowed</t>
-  </si>
-  <si>
-    <t>We also need the length and width variable to declare mean length / width</t>
-  </si>
-  <si>
-    <t>This need a better explanations</t>
-  </si>
-  <si>
-    <t>Code names are from the RDBES CE data model</t>
-  </si>
-  <si>
-    <t>Rule: Only WGFleet allowed</t>
-  </si>
-  <si>
-    <t>Rule: If fleetType = 'WGfleet' then code shoudl be in IC_FleetName</t>
-  </si>
-  <si>
-    <t>ICESArea</t>
-  </si>
-  <si>
-    <r>
-      <t>AreaType (ICESArea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t xml:space="preserve"> + Number</t>
     </r>
   </si>
 </sst>
@@ -1111,7 +1462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,8 +1560,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,6 +1585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,7 +1623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1323,11 +1694,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1670,25 +2068,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -1696,28 +2093,27 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="E3" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F5" s="23"/>
-      <c r="H5" s="18"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
@@ -1731,10 +2127,9 @@
         <v>59</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="H6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -1748,10 +2143,9 @@
         <v>59</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="H7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>82</v>
       </c>
@@ -1765,10 +2159,9 @@
         <v>59</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="H8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
@@ -1782,10 +2175,9 @@
         <v>59</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="H9" s="18"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -1799,10 +2191,9 @@
         <v>59</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="H10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -1816,12 +2207,11 @@
         <v>59</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="H11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -1833,12 +2223,11 @@
         <v>59</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="H12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -1850,29 +2239,27 @@
         <v>60</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="H13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="H14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -1884,10 +2271,9 @@
         <v>59</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="H15" s="18"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>87</v>
       </c>
@@ -1895,15 +2281,14 @@
         <v>60</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
@@ -1911,31 +2296,29 @@
         <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>9</v>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -1946,9 +2329,8 @@
       <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>61</v>
       </c>
@@ -1956,14 +2338,13 @@
         <v>78</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>62</v>
       </c>
@@ -1971,14 +2352,13 @@
         <v>78</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>105</v>
       </c>
@@ -1986,15 +2366,14 @@
         <v>78</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="18"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>6</v>
       </c>
@@ -2002,17 +2381,16 @@
         <v>59</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="18"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -2023,10 +2401,10 @@
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -2039,23 +2417,24 @@
       <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>122</v>
       </c>
@@ -2069,8 +2448,9 @@
         <v>60</v>
       </c>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -2079,16 +2459,16 @@
       </c>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -2097,19 +2477,19 @@
       </c>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2117,7 +2497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>0</v>
       </c>
@@ -2130,8 +2510,9 @@
       <c r="F35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>1</v>
       </c>
@@ -2144,8 +2525,9 @@
       <c r="F36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>82</v>
       </c>
@@ -2158,8 +2540,9 @@
       <c r="F37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>63</v>
       </c>
@@ -2167,13 +2550,14 @@
         <v>59</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>3</v>
       </c>
@@ -2181,13 +2565,14 @@
         <v>59</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>4</v>
       </c>
@@ -2195,29 +2580,31 @@
         <v>59</v>
       </c>
       <c r="E40" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>59</v>
@@ -2228,10 +2615,11 @@
       <c r="F42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -2242,36 +2630,39 @@
       <c r="F43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>176</v>
+      <c r="E45" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="F45" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>79</v>
       </c>
@@ -2284,8 +2675,9 @@
       <c r="F46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>85</v>
       </c>
@@ -2298,70 +2690,77 @@
       <c r="F47" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
-        <v>176</v>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
       </c>
+      <c r="H50" s="12"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
-        <v>168</v>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="12"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="18"/>
     </row>
   </sheetData>
@@ -2373,39 +2772,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="104.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="104.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="14"/>
       <c r="G2" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
@@ -2425,7 +2822,7 @@
         <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>73</v>
@@ -2437,7 +2834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -2445,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>93</v>
@@ -2466,7 +2863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -2495,7 +2892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -2521,10 +2918,10 @@
         <v>129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -2550,7 +2947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -2576,10 +2973,10 @@
         <v>99</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -2599,24 +2996,24 @@
         <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>101</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>93</v>
@@ -2628,18 +3025,18 @@
         <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>76</v>
@@ -2650,19 +3047,19 @@
       <c r="F11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>93</v>
@@ -2673,22 +3070,22 @@
       <c r="F12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>205</v>
+      <c r="G12" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>93</v>
@@ -2699,14 +3096,14 @@
       <c r="F13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>208</v>
+      <c r="G13" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
@@ -2725,7 +3122,7 @@
       <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="31" t="s">
         <v>80</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2735,7 +3132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>81</v>
       </c>
@@ -2754,7 +3151,7 @@
       <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="31" t="s">
         <v>110</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2764,15 +3161,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -2784,21 +3181,21 @@
         <v>71</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>93</v>
@@ -2809,15 +3206,15 @@
       <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>199</v>
+      <c r="G17" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
@@ -2834,13 +3231,13 @@
         <v>115</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
@@ -2860,7 +3257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -2880,7 +3277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>81</v>
       </c>
@@ -2893,22 +3290,22 @@
       <c r="F21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>171</v>
+      <c r="G21" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2919,21 +3316,21 @@
         <v>106</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>122</v>
       </c>
@@ -2944,13 +3341,13 @@
         <v>71</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
@@ -2958,15 +3355,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
@@ -2996,29 +3393,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="109" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-    <sheetView topLeftCell="A6" workbookViewId="1">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="71.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>125</v>
       </c>
@@ -3028,13 +3422,13 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
@@ -3066,7 +3460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -3074,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>93</v>
@@ -3096,7 +3490,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -3126,7 +3520,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -3154,7 +3548,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -3182,7 +3576,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -3208,11 +3602,11 @@
         <v>99</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -3232,7 +3626,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>101</v>
@@ -3240,7 +3634,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>105</v>
@@ -3258,11 +3652,11 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>123</v>
@@ -3278,20 +3672,20 @@
         <v>71</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3302,23 +3696,23 @@
         <v>71</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>76</v>
@@ -3330,14 +3724,14 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -3350,49 +3744,49 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>215</v>
+      <c r="G15" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>6</v>
@@ -3407,45 +3801,45 @@
       <c r="F17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>214</v>
+      <c r="G17" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>198</v>
+      <c r="G18" s="34" t="s">
+        <v>195</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>60</v>
@@ -3453,22 +3847,22 @@
       <c r="F19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>166</v>
+      <c r="G19" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3478,16 +3872,16 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>60</v>
@@ -3496,17 +3890,17 @@
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
@@ -3515,14 +3909,14 @@
       <c r="F22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>201</v>
+      <c r="G22" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -3544,13 +3938,13 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>76</v>
@@ -3562,11 +3956,11 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
         <v>57</v>
@@ -3584,10 +3978,10 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3603,43 +3997,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:I22"/>
-    </sheetView>
-    <sheetView topLeftCell="A8" workbookViewId="1">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="28.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="11"/>
+    <col min="2" max="2" width="28.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="11" customWidth="1"/>
     <col min="6" max="6" width="14" style="11" customWidth="1"/>
-    <col min="7" max="8" width="23.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="67.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="66.6640625" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="35" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="67.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="66.7109375" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
@@ -3653,7 +4045,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3661,13 +4053,13 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>88</v>
       </c>
@@ -3699,7 +4091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -3707,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>93</v>
@@ -3729,7 +4121,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -3759,7 +4151,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -3789,7 +4181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -3817,7 +4209,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
@@ -3843,11 +4235,11 @@
         <v>99</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
@@ -3867,7 +4259,7 @@
         <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>101</v>
@@ -3877,15 +4269,15 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>93</v>
@@ -3897,21 +4289,21 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>76</v>
@@ -3922,20 +4314,20 @@
       <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>204</v>
+      <c r="G14" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>93</v>
@@ -3946,24 +4338,24 @@
       <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>223</v>
+      <c r="G15" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>93</v>
@@ -3974,14 +4366,14 @@
       <c r="F16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>222</v>
+      <c r="G16" s="37" t="s">
+        <v>223</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
@@ -4000,7 +4392,7 @@
       <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="38" t="s">
         <v>80</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -4011,7 +4403,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -4019,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>132</v>
@@ -4031,17 +4423,17 @@
         <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>133</v>
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
@@ -4060,18 +4452,18 @@
       <c r="F19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>136</v>
+      <c r="G19" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -4090,7 +4482,7 @@
       <c r="F20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="38" t="s">
         <v>110</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -4101,15 +4493,15 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>93</v>
@@ -4120,24 +4512,24 @@
       <c r="F21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>196</v>
+      <c r="G21" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>93</v>
@@ -4148,16 +4540,16 @@
       <c r="F22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="32" t="s">
         <v>112</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
@@ -4170,8 +4562,8 @@
       <c r="F23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>171</v>
+      <c r="G23" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
@@ -4179,19 +4571,19 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4214,39 +4606,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="11"/>
+    <col min="11" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>88</v>
       </c>
@@ -4278,7 +4667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -4286,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>93</v>
@@ -4308,7 +4697,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -4338,7 +4727,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -4365,18 +4754,18 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>93</v>
@@ -4388,20 +4777,20 @@
         <v>71</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>76</v>
@@ -4412,21 +4801,21 @@
       <c r="F7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>204</v>
+      <c r="G7" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>93</v>
@@ -4437,23 +4826,23 @@
       <c r="F8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>223</v>
+      <c r="G8" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>93</v>
@@ -4464,13 +4853,13 @@
       <c r="F9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>222</v>
+      <c r="G9" s="37" t="s">
+        <v>223</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -4489,7 +4878,7 @@
       <c r="F10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="38" t="s">
         <v>80</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -4500,7 +4889,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
@@ -4519,7 +4908,7 @@
       <c r="F11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="38" t="s">
         <v>110</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -4530,28 +4919,28 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="G12" s="26" t="s">
-        <v>196</v>
+      <c r="G12" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>176</v>
+      <c r="B13" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -4565,16 +4954,16 @@
       <c r="F13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="32" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4590,15 +4979,15 @@
       <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="33" t="s">
         <v>128</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4609,7 +4998,7 @@
         <v>106</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4624,20 +5013,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
-    </sheetView>
-    <sheetView topLeftCell="A7" workbookViewId="1">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -4651,7 +5037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4663,7 +5049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -4675,7 +5061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -4689,7 +5075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4701,7 +5087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -4713,7 +5099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -4725,7 +5111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4737,7 +5123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -4749,7 +5135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -4761,7 +5147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4773,7 +5159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -4785,7 +5171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4797,7 +5183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -4809,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4821,7 +5207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4833,7 +5219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -4845,7 +5231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -4857,7 +5243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4869,7 +5255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -4881,7 +5267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4893,7 +5279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4905,7 +5291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4917,7 +5303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4929,7 +5315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4941,7 +5327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4953,7 +5339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4965,7 +5351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4977,7 +5363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4989,7 +5375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +5387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -5013,7 +5399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -5025,7 +5411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5037,7 +5423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5049,7 +5435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -5061,7 +5447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5073,7 +5459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5097,83 +5483,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F41" t="str">
         <f>_xlfn.CONCAT(A2,A40,A4,A40,A16,A40,A17,A40,A18,A40,A19,A40,A20,A40,A21,A40,A22,A40,A23,A40,A24,A40,A25,A40,A26,A40,A37,A40,A38)</f>
         <v>Age, ForkLength, LengthCarapace, LengthLowerJawFork, LengthMantle, LengthMaximumShell, LengthPinchedTail, LengthPreAnal, LengthPreCaudal, LengthStandard, LengthTail, LengthTotal, LengthWingSpan, WidthCarapace, WidthMaximumShell</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>16</v>
       </c>

--- a/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v16.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Rstudio\D1SCI\VISBIO\RDBESstockCoord\WGRDBESstockCoord\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614ED536-2AF4-4098-823C-0B6A181B798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{614ED536-2AF4-4098-823C-0B6A181B798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4944C7F6-FD7E-47DD-A45D-845D87AA29FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
     <sheet name="RCEF" sheetId="1" r:id="rId1"/>
@@ -1743,10 +1743,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2068,24 +2064,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2096,14 +2092,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="E3" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -2113,7 +2109,7 @@
       <c r="F5" s="23"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2125,7 @@
       <c r="F6" s="24"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2141,7 @@
       <c r="F7" s="24"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>82</v>
       </c>
@@ -2161,7 +2157,7 @@
       <c r="F8" s="24"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
@@ -2177,7 +2173,7 @@
       <c r="F9" s="24"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2189,7 @@
       <c r="F10" s="24"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2205,7 @@
       <c r="F11" s="24"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>155</v>
       </c>
@@ -2225,7 +2221,7 @@
       <c r="F12" s="24"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>156</v>
       </c>
@@ -2241,7 +2237,7 @@
       <c r="F13" s="24"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>158</v>
       </c>
@@ -2257,7 +2253,7 @@
       <c r="F14" s="24"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>159</v>
       </c>
@@ -2273,7 +2269,7 @@
       <c r="F15" s="24"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>87</v>
       </c>
@@ -2288,7 +2284,7 @@
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>161</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>174</v>
       </c>
@@ -2330,7 +2326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>61</v>
       </c>
@@ -2344,7 +2340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>105</v>
       </c>
@@ -2373,7 +2369,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2384,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>185</v>
       </c>
@@ -2404,7 +2400,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
@@ -2419,7 +2415,7 @@
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>162</v>
       </c>
@@ -2434,7 +2430,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>122</v>
       </c>
@@ -2450,7 +2446,7 @@
       <c r="E27" s="1"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -2459,7 +2455,7 @@
       </c>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>151</v>
       </c>
@@ -2468,7 +2464,7 @@
       </c>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -2477,19 +2473,19 @@
       </c>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>0</v>
       </c>
@@ -2512,7 +2508,7 @@
       </c>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>1</v>
       </c>
@@ -2527,7 +2523,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
         <v>82</v>
       </c>
@@ -2542,7 +2538,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
         <v>63</v>
       </c>
@@ -2557,7 +2553,7 @@
       </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
         <v>3</v>
       </c>
@@ -2572,7 +2568,7 @@
       </c>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2583,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
         <v>173</v>
       </c>
@@ -2602,7 +2598,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="20" t="s">
         <v>156</v>
       </c>
@@ -2617,7 +2613,7 @@
       </c>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
         <v>158</v>
       </c>
@@ -2632,7 +2628,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
         <v>159</v>
       </c>
@@ -2647,14 +2643,14 @@
       </c>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="20" t="s">
         <v>174</v>
       </c>
       <c r="F45" t="s">
@@ -2662,7 +2658,7 @@
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
         <v>79</v>
       </c>
@@ -2677,7 +2673,7 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="20" t="s">
         <v>85</v>
       </c>
@@ -2692,7 +2688,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2698,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="20" t="s">
         <v>161</v>
       </c>
@@ -2711,8 +2707,8 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C50" t="s">
@@ -2721,7 +2717,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="20" t="s">
         <v>6</v>
       </c>
@@ -2730,8 +2726,8 @@
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C52" t="s">
@@ -2739,7 +2735,7 @@
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="20" t="s">
         <v>7</v>
       </c>
@@ -2748,19 +2744,19 @@
       </c>
       <c r="H53" s="12"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82" s="18"/>
     </row>
   </sheetData>
@@ -2772,27 +2768,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="104.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="6" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="104.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>172</v>
       </c>
@@ -2802,7 +2798,7 @@
       </c>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
@@ -2834,7 +2830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -2863,7 +2859,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -2947,7 +2943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -2976,7 +2972,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
@@ -3051,7 +3047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
@@ -3103,7 +3099,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>81</v>
       </c>
@@ -3161,7 +3157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
@@ -3187,7 +3183,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
@@ -3214,7 +3210,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
@@ -3237,7 +3233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
@@ -3257,7 +3253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -3277,7 +3273,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>81</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>185</v>
       </c>
@@ -3305,7 +3301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -3322,7 +3318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>162</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>122</v>
       </c>
@@ -3347,7 +3343,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
@@ -3355,7 +3351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>151</v>
       </c>
@@ -3363,7 +3359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
@@ -3397,22 +3393,22 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="71.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>125</v>
       </c>
@@ -3428,7 +3424,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>88</v>
       </c>
@@ -3460,7 +3456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -3490,7 +3486,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -3520,7 +3516,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -3548,7 +3544,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -3576,7 +3572,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -3606,7 +3602,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -3634,7 +3630,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>105</v>
@@ -3656,7 +3652,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>123</v>
@@ -3682,7 +3678,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>184</v>
@@ -3706,7 +3702,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>124</v>
@@ -3728,7 +3724,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>144</v>
@@ -3748,7 +3744,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>179</v>
@@ -3770,7 +3766,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>180</v>
@@ -3786,7 +3782,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>6</v>
@@ -3810,7 +3806,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
         <v>185</v>
@@ -3830,7 +3826,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>163</v>
@@ -3856,7 +3852,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
         <v>175</v>
@@ -3872,7 +3868,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
         <v>162</v>
@@ -3894,7 +3890,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
         <v>122</v>
@@ -3916,7 +3912,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -3938,7 +3934,7 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>151</v>
@@ -3960,7 +3956,7 @@
       </c>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
         <v>57</v>
@@ -4001,37 +3997,37 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="11"/>
-    <col min="2" max="2" width="28.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="28.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="11" customWidth="1"/>
     <col min="6" max="6" width="14" style="11" customWidth="1"/>
     <col min="7" max="7" width="35" style="11" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="67.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="66.7109375" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="11"/>
+    <col min="8" max="8" width="23.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="67.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="66.6640625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>86</v>
       </c>
@@ -4045,7 +4041,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4059,7 +4055,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>88</v>
       </c>
@@ -4091,7 +4087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -4121,7 +4117,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4151,7 +4147,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -4181,7 +4177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -4209,7 +4205,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
@@ -4239,7 +4235,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
@@ -4269,7 +4265,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
@@ -4295,7 +4291,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>81</v>
       </c>
@@ -4321,7 +4317,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>158</v>
@@ -4347,7 +4343,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>81</v>
       </c>
@@ -4373,7 +4369,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>81</v>
       </c>
@@ -4403,7 +4399,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -4433,7 +4429,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
@@ -4463,7 +4459,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -4493,7 +4489,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>81</v>
       </c>
@@ -4521,7 +4517,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
@@ -4549,7 +4545,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
@@ -4571,7 +4567,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>185</v>
       </c>
@@ -4583,7 +4579,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4606,26 +4602,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="11"/>
+    <col min="11" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
@@ -4635,7 +4631,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>88</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -4697,7 +4693,7 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -4727,7 +4723,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
@@ -4757,7 +4753,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -4782,7 +4778,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
@@ -4807,7 +4803,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4834,7 +4830,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -4859,7 +4855,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -4889,7 +4885,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>81</v>
       </c>
@@ -4919,7 +4915,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>81</v>
       </c>
@@ -4935,7 +4931,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
@@ -4963,7 +4959,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -4987,7 +4983,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
@@ -5017,13 +5013,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -5061,7 +5057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5075,7 +5071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -5087,7 +5083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -5123,7 +5119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -5135,7 +5131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -5147,7 +5143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5159,7 +5155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5183,7 +5179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -5195,7 +5191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -5207,7 +5203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5231,7 +5227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -5255,7 +5251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5279,7 +5275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5291,7 +5287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5303,7 +5299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5327,7 +5323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -5339,7 +5335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -5351,7 +5347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -5375,7 +5371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -5399,7 +5395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5435,7 +5431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -5471,7 +5467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5483,83 +5479,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F41" t="str">
         <f>_xlfn.CONCAT(A2,A40,A4,A40,A16,A40,A17,A40,A18,A40,A19,A40,A20,A40,A21,A40,A22,A40,A23,A40,A24,A40,A25,A40,A26,A40,A37,A40,A38)</f>
         <v>Age, ForkLength, LengthCarapace, LengthLowerJawFork, LengthMantle, LengthMaximumShell, LengthPinchedTail, LengthPreAnal, LengthPreCaudal, LengthStandard, LengthTail, LengthTotal, LengthWingSpan, WidthCarapace, WidthMaximumShell</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>16</v>
       </c>
@@ -5571,6 +5567,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5580,15 +5585,6 @@
     <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5769,19 +5765,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
